--- a/Cestas.xlsx
+++ b/Cestas.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A67E8A-4130-4424-89CD-02FB3E5E80AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B55330-B8CA-4DE8-BAA2-6E190B7CA61A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Visual" sheetId="1" r:id="rId1"/>
-    <sheet name="6 meses a 3 anos" sheetId="5" r:id="rId2"/>
-    <sheet name="3 anos a 6 anos" sheetId="4" r:id="rId3"/>
-    <sheet name="6 anos a 15 anos" sheetId="3" r:id="rId4"/>
+    <sheet name="Data frame" sheetId="6" r:id="rId1"/>
+    <sheet name="Visual" sheetId="1" r:id="rId2"/>
+    <sheet name="6 meses a 3 anos" sheetId="5" r:id="rId3"/>
+    <sheet name="3 anos a 6 anos" sheetId="4" r:id="rId4"/>
+    <sheet name="6 anos a 15 anos" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
   <si>
     <t>Faixa etária</t>
   </si>
@@ -131,7 +132,7 @@
     <numFmt numFmtId="166" formatCode="0\ &quot;kg&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +154,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,6 +340,27 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,14 +642,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034E0621-D6C4-4320-83B7-7BC49D8092E9}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D2" s="40">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42">
+        <v>2.29</v>
+      </c>
+      <c r="G2" s="41">
+        <f t="shared" ref="G2:G15" si="0">E2*D2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2:H27" si="1">F2*D2</f>
+        <v>2.29</v>
+      </c>
+      <c r="I2" s="41">
+        <f t="shared" ref="I2:I27" si="2">C2*G2</f>
+        <v>2158</v>
+      </c>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2:J27" si="3">C2*H2</f>
+        <v>4941.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D3" s="40">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42">
+        <v>2.29</v>
+      </c>
+      <c r="G3" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="42">
+        <f t="shared" si="1"/>
+        <v>2.29</v>
+      </c>
+      <c r="I3" s="41">
+        <f t="shared" si="2"/>
+        <v>9691</v>
+      </c>
+      <c r="J3" s="42">
+        <f t="shared" si="3"/>
+        <v>22192.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1998</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1</v>
+      </c>
+      <c r="E4" s="41">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42">
+        <v>2.89</v>
+      </c>
+      <c r="G4" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="42">
+        <f t="shared" si="1"/>
+        <v>2.89</v>
+      </c>
+      <c r="I4" s="41">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="J4" s="42">
+        <f t="shared" si="3"/>
+        <v>5774.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D5" s="40">
+        <v>2</v>
+      </c>
+      <c r="E5" s="41">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="42">
+        <f t="shared" si="1"/>
+        <v>5.78</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" si="2"/>
+        <v>4316</v>
+      </c>
+      <c r="J5" s="42">
+        <f t="shared" si="3"/>
+        <v>12473.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D6" s="40">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>2.89</v>
+      </c>
+      <c r="G6" s="41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="42">
+        <f t="shared" si="1"/>
+        <v>5.78</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" si="2"/>
+        <v>19382</v>
+      </c>
+      <c r="J6" s="42">
+        <f t="shared" si="3"/>
+        <v>56013.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="42">
+        <v>4.49</v>
+      </c>
+      <c r="G7" s="43">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="1"/>
+        <v>4.49</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" si="2"/>
+        <v>863.2</v>
+      </c>
+      <c r="J7" s="42">
+        <f t="shared" si="3"/>
+        <v>9689.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="42">
+        <v>4.49</v>
+      </c>
+      <c r="G8" s="43">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="1"/>
+        <v>4.49</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" si="2"/>
+        <v>3876.4</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" si="3"/>
+        <v>43512.590000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="42">
+        <v>5.89</v>
+      </c>
+      <c r="G9" s="43">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="1"/>
+        <v>5.89</v>
+      </c>
+      <c r="I9" s="41">
+        <f t="shared" si="2"/>
+        <v>863.2</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" si="3"/>
+        <v>12710.619999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1</v>
+      </c>
+      <c r="E10" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="42">
+        <v>5.89</v>
+      </c>
+      <c r="G10" s="43">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="1"/>
+        <v>5.89</v>
+      </c>
+      <c r="I10" s="41">
+        <f t="shared" si="2"/>
+        <v>3876.4</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="3"/>
+        <v>57079.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="42">
+        <v>12.29</v>
+      </c>
+      <c r="G11" s="43">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="1"/>
+        <v>12.29</v>
+      </c>
+      <c r="I11" s="41">
+        <f t="shared" si="2"/>
+        <v>4845.5</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="3"/>
+        <v>119102.38999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1</v>
+      </c>
+      <c r="E12" s="41">
+        <v>1</v>
+      </c>
+      <c r="F12" s="42">
+        <v>2.99</v>
+      </c>
+      <c r="G12" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="1"/>
+        <v>2.99</v>
+      </c>
+      <c r="I12" s="41">
+        <f t="shared" si="2"/>
+        <v>9691</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="3"/>
+        <v>28976.090000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1998</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1</v>
+      </c>
+      <c r="E13" s="41">
+        <v>1</v>
+      </c>
+      <c r="F13" s="42">
+        <v>6.29</v>
+      </c>
+      <c r="G13" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" si="1"/>
+        <v>6.29</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="3"/>
+        <v>12567.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1</v>
+      </c>
+      <c r="E14" s="41">
+        <v>1</v>
+      </c>
+      <c r="F14" s="42">
+        <v>6.29</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="1"/>
+        <v>6.29</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="2"/>
+        <v>2158</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="3"/>
+        <v>13573.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D15" s="40">
+        <v>1</v>
+      </c>
+      <c r="E15" s="41">
+        <v>1</v>
+      </c>
+      <c r="F15" s="42">
+        <v>6.29</v>
+      </c>
+      <c r="G15" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="42">
+        <f t="shared" si="1"/>
+        <v>6.29</v>
+      </c>
+      <c r="I15" s="41">
+        <f t="shared" si="2"/>
+        <v>9691</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" si="3"/>
+        <v>60956.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1998</v>
+      </c>
+      <c r="D16" s="40">
+        <v>4</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="42">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G16" s="43">
+        <f>E16*D16</f>
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="42">
+        <f t="shared" si="1"/>
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="2"/>
+        <v>1598.4</v>
+      </c>
+      <c r="J16" s="42">
+        <f t="shared" si="3"/>
+        <v>37482.480000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D17" s="40">
+        <v>4</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="42">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G17" s="43">
+        <f t="shared" ref="G17:G27" si="4">E17*D17</f>
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="1"/>
+        <v>18.760000000000002</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="2"/>
+        <v>1726.4</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" si="3"/>
+        <v>40484.080000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1998</v>
+      </c>
+      <c r="D18" s="40">
+        <v>1</v>
+      </c>
+      <c r="E18" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="42">
+        <v>1.99</v>
+      </c>
+      <c r="G18" s="43">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="42">
+        <f t="shared" si="1"/>
+        <v>1.99</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+      <c r="J18" s="42">
+        <f t="shared" si="3"/>
+        <v>3976.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D19" s="40">
+        <v>2</v>
+      </c>
+      <c r="E19" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="42">
+        <v>1.99</v>
+      </c>
+      <c r="G19" s="41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="42">
+        <f t="shared" si="1"/>
+        <v>3.98</v>
+      </c>
+      <c r="I19" s="41">
+        <f t="shared" si="2"/>
+        <v>2158</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="3"/>
+        <v>8588.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D20" s="40">
+        <v>2</v>
+      </c>
+      <c r="E20" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="42">
+        <v>1.99</v>
+      </c>
+      <c r="G20" s="41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="42">
+        <f t="shared" si="1"/>
+        <v>3.98</v>
+      </c>
+      <c r="I20" s="41">
+        <f t="shared" si="2"/>
+        <v>9691</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" si="3"/>
+        <v>38570.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D21" s="40">
+        <v>2</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="42">
+        <v>1.49</v>
+      </c>
+      <c r="G21" s="41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="42">
+        <f t="shared" si="1"/>
+        <v>2.98</v>
+      </c>
+      <c r="I21" s="41">
+        <f t="shared" si="2"/>
+        <v>2158</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="3"/>
+        <v>6430.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D22" s="40">
+        <v>2</v>
+      </c>
+      <c r="E22" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="42">
+        <v>1.49</v>
+      </c>
+      <c r="G22" s="41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" si="1"/>
+        <v>2.98</v>
+      </c>
+      <c r="I22" s="41">
+        <f t="shared" si="2"/>
+        <v>9691</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" si="3"/>
+        <v>28879.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1998</v>
+      </c>
+      <c r="D23" s="40">
+        <v>2</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0.23</v>
+      </c>
+      <c r="F23" s="42">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G23" s="44">
+        <f t="shared" si="4"/>
+        <v>0.46</v>
+      </c>
+      <c r="H23" s="42">
+        <f t="shared" si="1"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="I23" s="41">
+        <f t="shared" si="2"/>
+        <v>919.08</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="3"/>
+        <v>19540.439999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D24" s="40">
+        <v>1</v>
+      </c>
+      <c r="E24" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="42">
+        <v>3.59</v>
+      </c>
+      <c r="G24" s="43">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="42">
+        <f t="shared" si="1"/>
+        <v>3.59</v>
+      </c>
+      <c r="I24" s="41">
+        <f t="shared" si="2"/>
+        <v>1942.2</v>
+      </c>
+      <c r="J24" s="42">
+        <f t="shared" si="3"/>
+        <v>7747.2199999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D25" s="40">
+        <v>1</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="42">
+        <v>3.59</v>
+      </c>
+      <c r="G25" s="43">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H25" s="42">
+        <f t="shared" si="1"/>
+        <v>3.59</v>
+      </c>
+      <c r="I25" s="41">
+        <f t="shared" si="2"/>
+        <v>8721.9</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" si="3"/>
+        <v>34790.689999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="40">
+        <v>2158</v>
+      </c>
+      <c r="D26" s="40">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0.79</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="42">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+      <c r="I26" s="41">
+        <f t="shared" si="2"/>
+        <v>2158</v>
+      </c>
+      <c r="J26" s="42">
+        <f t="shared" si="3"/>
+        <v>1704.8200000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="40">
+        <v>9691</v>
+      </c>
+      <c r="D27" s="40">
+        <v>1</v>
+      </c>
+      <c r="E27" s="41">
+        <v>1</v>
+      </c>
+      <c r="F27" s="42">
+        <v>0.79</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+      <c r="I27" s="41">
+        <f t="shared" si="2"/>
+        <v>9691</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="3"/>
+        <v>7655.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541D645-3660-4453-849B-478698C63174}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1766,7 +2795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B757A9E8-F985-4007-AD66-B88236A7B17C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2117,7 +3146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A69A3-67D4-47C3-8627-A913A4081D3F}">
   <dimension ref="A1:I12"/>
   <sheetViews>
